--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C72497-BA28-4AAA-8250-304B5FA60784}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB83864-5DD7-4522-8720-897886170463}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="241">
   <si>
     <t>municipality_code</t>
   </si>
@@ -509,9 +510,6 @@
     <t>population per a generally accessible pharmacy</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>average usable area of the apartment per person</t>
   </si>
   <si>
@@ -756,6 +754,12 @@
   </si>
   <si>
     <t>glosy_NIEM</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
   </si>
 </sst>
 </file>
@@ -1082,28 +1086,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="85.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1111,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1122,16 +1127,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
         <v>196</v>
       </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1142,7 +1147,7 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1156,7 +1161,7 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -1170,7 +1175,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1184,7 +1189,7 @@
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1198,7 +1203,7 @@
         <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1212,7 +1217,7 @@
         <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -1227,7 +1232,7 @@
         <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1242,7 +1247,7 @@
         <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1257,7 +1262,7 @@
         <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1272,7 +1277,7 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1287,7 +1292,7 @@
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1302,7 +1307,7 @@
         <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1316,7 +1321,7 @@
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1330,7 +1335,7 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1344,7 +1349,7 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1358,7 +1363,7 @@
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1372,7 +1377,7 @@
         <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1386,7 +1391,7 @@
         <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1400,7 +1405,7 @@
         <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
@@ -1414,7 +1419,7 @@
         <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -1428,7 +1433,7 @@
         <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1442,7 +1447,7 @@
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1456,7 +1461,7 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -1470,7 +1475,7 @@
         <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1484,7 +1489,7 @@
         <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1498,7 +1503,7 @@
         <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -1512,7 +1517,7 @@
         <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -1526,7 +1531,7 @@
         <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -1540,7 +1545,7 @@
         <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -1554,7 +1559,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" t="s">
         <v>30</v>
@@ -1568,7 +1573,7 @@
         <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
@@ -1582,7 +1587,7 @@
         <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
         <v>32</v>
@@ -1596,7 +1601,7 @@
         <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -1610,7 +1615,7 @@
         <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -1624,7 +1629,7 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -1638,7 +1643,7 @@
         <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -1652,7 +1657,7 @@
         <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
         <v>37</v>
@@ -1666,7 +1671,7 @@
         <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -1680,7 +1685,7 @@
         <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
@@ -1694,7 +1699,7 @@
         <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
@@ -1708,7 +1713,7 @@
         <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -1722,7 +1727,7 @@
         <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
         <v>42</v>
@@ -1736,7 +1741,7 @@
         <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" t="s">
         <v>43</v>
@@ -1750,7 +1755,7 @@
         <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
@@ -1764,7 +1769,7 @@
         <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
         <v>45</v>
@@ -1778,7 +1783,7 @@
         <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
         <v>46</v>
@@ -1792,7 +1797,7 @@
         <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
         <v>47</v>
@@ -1806,7 +1811,7 @@
         <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -1820,7 +1825,7 @@
         <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
         <v>49</v>
@@ -1834,7 +1839,7 @@
         <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -1848,7 +1853,7 @@
         <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s">
         <v>51</v>
@@ -1862,7 +1867,7 @@
         <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
         <v>52</v>
@@ -1876,7 +1881,7 @@
         <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" t="s">
         <v>53</v>
@@ -1890,7 +1895,7 @@
         <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s">
         <v>54</v>
@@ -1904,7 +1909,7 @@
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D58" t="s">
         <v>55</v>
@@ -1918,7 +1923,7 @@
         <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
         <v>56</v>
@@ -1932,7 +1937,7 @@
         <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
         <v>57</v>
@@ -1946,7 +1951,7 @@
         <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
@@ -1960,7 +1965,7 @@
         <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
         <v>60</v>
@@ -1971,10 +1976,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
         <v>61</v>
@@ -1985,10 +1990,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
         <v>62</v>
@@ -1999,10 +2004,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" t="s">
         <v>63</v>
@@ -2013,10 +2018,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
         <v>64</v>
@@ -2027,10 +2032,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" t="s">
         <v>65</v>
@@ -2041,10 +2046,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
         <v>66</v>
@@ -2055,10 +2060,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
         <v>67</v>
@@ -2069,10 +2074,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" t="s">
         <v>68</v>
@@ -2083,10 +2088,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
         <v>69</v>
@@ -2097,10 +2102,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -2111,10 +2116,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
         <v>71</v>
@@ -2125,10 +2130,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
         <v>72</v>
@@ -2139,10 +2144,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
@@ -2153,10 +2158,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
         <v>74</v>
@@ -2167,10 +2172,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" t="s">
         <v>75</v>
@@ -2181,10 +2186,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
         <v>76</v>
@@ -2195,10 +2200,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D79" t="s">
         <v>77</v>
@@ -2209,10 +2214,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
         <v>78</v>
@@ -2223,10 +2228,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
         <v>79</v>
@@ -2237,10 +2242,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
@@ -2251,10 +2256,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s">
         <v>81</v>
@@ -2265,10 +2270,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D84" t="s">
         <v>82</v>
@@ -2279,10 +2284,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
         <v>83</v>
@@ -2293,10 +2298,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s">
         <v>84</v>
@@ -2307,10 +2312,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
         <v>85</v>
@@ -2321,10 +2326,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
         <v>86</v>
@@ -2335,10 +2340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D89" t="s">
         <v>87</v>
@@ -2349,10 +2354,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
         <v>88</v>
@@ -2363,10 +2368,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
         <v>89</v>
@@ -2377,10 +2382,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
         <v>90</v>
@@ -2391,10 +2396,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
         <v>91</v>
@@ -2405,10 +2410,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D94" t="s">
         <v>92</v>
@@ -2419,10 +2424,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s">
         <v>93</v>
@@ -2433,10 +2438,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
         <v>94</v>
@@ -2447,10 +2452,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97" t="s">
         <v>95</v>
@@ -2461,10 +2466,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D98" t="s">
         <v>96</v>
@@ -2475,10 +2480,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
         <v>97</v>
@@ -2486,27 +2491,27 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
         <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
         <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" t="str">
         <f>LOWER(A101)</f>
@@ -2515,28 +2520,28 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
         <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" ref="D102:D119" si="0">LOWER(A102)</f>
+        <f t="shared" ref="D102:D104" si="0">LOWER(A102)</f>
         <v>powiat</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
         <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="0"/>
@@ -2545,13 +2550,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" t="s">
         <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="0"/>
@@ -2561,216 +2566,287 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
         <v>59</v>
       </c>
       <c r="C105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" t="s">
         <v>224</v>
-      </c>
-      <c r="D105" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
         <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
         <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
         <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s">
         <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B110" t="s">
         <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111" t="s">
         <v>59</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B113" t="s">
         <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B114" t="s">
         <v>59</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B116" t="s">
         <v>59</v>
       </c>
       <c r="C116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B117" t="s">
         <v>59</v>
       </c>
       <c r="C117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B118" t="s">
         <v>59</v>
       </c>
       <c r="C118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49745861-A84E-4248-9F1B-80C7799657BC}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB83864-5DD7-4522-8720-897886170463}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CC3035-CD84-4632-840D-C13567FA3346}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1086,14 +1086,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="1" max="1" width="110.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="188.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2784,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49745861-A84E-4248-9F1B-80C7799657BC}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>

--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CC3035-CD84-4632-840D-C13567FA3346}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521E9982-C8FF-4677-9B2A-CE42C2E325DC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$145</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="274">
   <si>
     <t>municipality_code</t>
   </si>
@@ -760,6 +763,105 @@
   </si>
   <si>
     <t>upper</t>
+  </si>
+  <si>
+    <t>Prussian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>pop_t_0_19_perc</t>
+  </si>
+  <si>
+    <t>pop_t_40_49_perc</t>
+  </si>
+  <si>
+    <t>pop_t_20_29_perc</t>
+  </si>
+  <si>
+    <t>pop_t_30_39_perc</t>
+  </si>
+  <si>
+    <t>pop_t_50_59_perc</t>
+  </si>
+  <si>
+    <t>pop_t_60_84_perc</t>
+  </si>
+  <si>
+    <t>pop_f_all_perc</t>
+  </si>
+  <si>
+    <t>podatek_rolny</t>
+  </si>
+  <si>
+    <t>avg_gosp_wiejskie</t>
+  </si>
+  <si>
+    <t>high_exposure</t>
+  </si>
+  <si>
+    <t>index_ineq</t>
+  </si>
+  <si>
+    <t>average_wage_relative</t>
+  </si>
+  <si>
+    <t>doctors_per_1000_persons</t>
+  </si>
+  <si>
+    <t>beds_in_hospitals</t>
+  </si>
+  <si>
+    <t>cars_per_1000_persons</t>
+  </si>
+  <si>
+    <t>motorcycles_per_1000_persons</t>
+  </si>
+  <si>
+    <t>education_share_higher</t>
+  </si>
+  <si>
+    <t>education_share_secondary</t>
+  </si>
+  <si>
+    <t>education_share_vocational</t>
+  </si>
+  <si>
+    <t>education_share_primary</t>
+  </si>
+  <si>
+    <t>tourits_per_1000_persons</t>
+  </si>
+  <si>
+    <t>population_total_log</t>
+  </si>
+  <si>
+    <t>home_appliances</t>
+  </si>
+  <si>
+    <t>rolny_revenue_ratio</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>wec-pow</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>logatythm of population_total</t>
+  </si>
+  <si>
+    <t>sum of installations_toilet,installations_bathroom, installations_central_heating, installations_network_gas</t>
+  </si>
+  <si>
+    <t>bdl</t>
+  </si>
+  <si>
+    <t>own</t>
   </si>
 </sst>
 </file>
@@ -1084,16 +1186,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F119"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="110.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="188.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,6 +1215,9 @@
       <c r="D1" t="s">
         <v>201</v>
       </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1123,6 +1231,9 @@
       </c>
       <c r="D2" t="s">
         <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1138,6 +1249,9 @@
       <c r="D3" t="s">
         <v>195</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1152,8 +1266,11 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1166,8 +1283,11 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1180,8 +1300,11 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1194,8 +1317,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1208,8 +1334,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1222,9 +1351,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1237,9 +1368,12 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1252,9 +1386,12 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1267,9 +1404,11 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1282,9 +1421,12 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1297,9 +1439,12 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1312,8 +1457,11 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1326,8 +1474,11 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1340,8 +1491,11 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1354,8 +1508,11 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1368,8 +1525,11 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1382,8 +1542,11 @@
       <c r="D20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1396,8 +1559,11 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1410,8 +1576,11 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1424,8 +1593,11 @@
       <c r="D23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1438,8 +1610,11 @@
       <c r="D24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1452,8 +1627,11 @@
       <c r="D25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1466,8 +1644,11 @@
       <c r="D26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1480,8 +1661,11 @@
       <c r="D27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1494,8 +1678,11 @@
       <c r="D28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1508,8 +1695,11 @@
       <c r="D29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1522,8 +1712,11 @@
       <c r="D30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1536,8 +1729,11 @@
       <c r="D31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1550,8 +1746,11 @@
       <c r="D32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1564,8 +1763,11 @@
       <c r="D33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1578,8 +1780,11 @@
       <c r="D34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1592,8 +1797,11 @@
       <c r="D35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1606,8 +1814,11 @@
       <c r="D36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1620,8 +1831,11 @@
       <c r="D37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1634,8 +1848,11 @@
       <c r="D38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1648,8 +1865,11 @@
       <c r="D39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1662,8 +1882,11 @@
       <c r="D40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1676,8 +1899,11 @@
       <c r="D41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1690,8 +1916,11 @@
       <c r="D42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1704,8 +1933,11 @@
       <c r="D43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1718,8 +1950,11 @@
       <c r="D44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1732,8 +1967,11 @@
       <c r="D45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1746,8 +1984,11 @@
       <c r="D46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1760,8 +2001,11 @@
       <c r="D47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1774,8 +2018,11 @@
       <c r="D48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1788,8 +2035,11 @@
       <c r="D49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1802,8 +2052,11 @@
       <c r="D50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1816,8 +2069,11 @@
       <c r="D51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1830,8 +2086,11 @@
       <c r="D52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1844,8 +2103,11 @@
       <c r="D53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1858,8 +2120,11 @@
       <c r="D54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1872,8 +2137,11 @@
       <c r="D55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1886,8 +2154,11 @@
       <c r="D56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1900,8 +2171,11 @@
       <c r="D57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1914,8 +2188,11 @@
       <c r="D58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1928,8 +2205,11 @@
       <c r="D59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1942,8 +2222,11 @@
       <c r="D60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -1956,8 +2239,11 @@
       <c r="D61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1970,8 +2256,11 @@
       <c r="D62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1984,8 +2273,11 @@
       <c r="D63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1998,8 +2290,11 @@
       <c r="D64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2012,8 +2307,11 @@
       <c r="D65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2026,8 +2324,11 @@
       <c r="D66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2040,8 +2341,11 @@
       <c r="D67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2054,8 +2358,11 @@
       <c r="D68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2068,8 +2375,11 @@
       <c r="D69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2082,8 +2392,11 @@
       <c r="D70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2096,8 +2409,11 @@
       <c r="D71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2110,8 +2426,11 @@
       <c r="D72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2124,8 +2443,11 @@
       <c r="D73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2138,8 +2460,11 @@
       <c r="D74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2152,8 +2477,11 @@
       <c r="D75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2166,8 +2494,11 @@
       <c r="D76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2180,8 +2511,11 @@
       <c r="D77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2194,8 +2528,11 @@
       <c r="D78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2208,8 +2545,11 @@
       <c r="D79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2222,8 +2562,11 @@
       <c r="D80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2236,8 +2579,11 @@
       <c r="D81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2250,8 +2596,11 @@
       <c r="D82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2264,8 +2613,11 @@
       <c r="D83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2278,8 +2630,11 @@
       <c r="D84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2292,8 +2647,11 @@
       <c r="D85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2306,8 +2664,11 @@
       <c r="D86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2320,8 +2681,11 @@
       <c r="D87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2334,8 +2698,11 @@
       <c r="D88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2348,8 +2715,11 @@
       <c r="D89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2362,8 +2732,11 @@
       <c r="D90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2376,8 +2749,11 @@
       <c r="D91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2390,8 +2766,11 @@
       <c r="D92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2404,8 +2783,11 @@
       <c r="D93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2418,8 +2800,11 @@
       <c r="D94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2432,8 +2817,11 @@
       <c r="D95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2445,6 +2833,9 @@
       </c>
       <c r="D96" t="s">
         <v>94</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2460,6 +2851,9 @@
       <c r="D97" t="s">
         <v>95</v>
       </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
@@ -2474,6 +2868,9 @@
       <c r="D98" t="s">
         <v>96</v>
       </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
@@ -2488,225 +2885,272 @@
       <c r="D99" t="s">
         <v>97</v>
       </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="B100" t="s">
         <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>254</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="B101" t="s">
         <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
-      </c>
-      <c r="D101" t="str">
-        <f>LOWER(A101)</f>
-        <v>gmina</v>
+        <v>268</v>
+      </c>
+      <c r="D101" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="B102" t="s">
         <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
-      </c>
-      <c r="D102" t="str">
-        <f t="shared" ref="D102:D104" si="0">LOWER(A102)</f>
-        <v>powiat</v>
+        <v>268</v>
+      </c>
+      <c r="D102" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>257</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" t="s">
+        <v>268</v>
+      </c>
+      <c r="D105" t="s">
+        <v>259</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>261</v>
+      </c>
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" t="s">
+        <v>261</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" t="s">
+        <v>268</v>
+      </c>
+      <c r="D108" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" t="s">
+        <v>263</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" t="str">
+        <f>LOWER(A111)</f>
+        <v>gmina</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" ref="D112:D114" si="0">LOWER(A112)</f>
+        <v>powiat</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>205</v>
       </c>
-      <c r="B103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="s">
         <v>223</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D113" t="str">
         <f t="shared" si="0"/>
         <v>województwo</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>206</v>
       </c>
-      <c r="B104" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" t="s">
         <v>223</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D114" t="str">
         <f t="shared" si="0"/>
         <v>frekwencja</v>
       </c>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>207</v>
-      </c>
-      <c r="B105" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" t="s">
-        <v>223</v>
-      </c>
-      <c r="D105" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" t="s">
-        <v>223</v>
-      </c>
-      <c r="D106" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" t="s">
-        <v>223</v>
-      </c>
-      <c r="D107" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" t="s">
-        <v>223</v>
-      </c>
-      <c r="D108" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" t="s">
-        <v>223</v>
-      </c>
-      <c r="D109" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" t="s">
-        <v>223</v>
-      </c>
-      <c r="D110" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>213</v>
-      </c>
-      <c r="B111" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" t="s">
-        <v>223</v>
-      </c>
-      <c r="D111" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>215</v>
-      </c>
-      <c r="B113" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" t="s">
-        <v>223</v>
-      </c>
-      <c r="D113" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>216</v>
-      </c>
-      <c r="B114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>217</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
@@ -2715,12 +3159,15 @@
         <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
         <v>59</v>
@@ -2729,12 +3176,15 @@
         <v>223</v>
       </c>
       <c r="D116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
         <v>59</v>
@@ -2743,12 +3193,15 @@
         <v>223</v>
       </c>
       <c r="D117" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B118" t="s">
         <v>59</v>
@@ -2757,12 +3210,15 @@
         <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
@@ -2771,10 +3227,462 @@
         <v>223</v>
       </c>
       <c r="D119" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" t="s">
+        <v>223</v>
+      </c>
+      <c r="D121" t="s">
+        <v>230</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" t="s">
+        <v>223</v>
+      </c>
+      <c r="D123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" t="s">
+        <v>223</v>
+      </c>
+      <c r="D124" t="s">
+        <v>233</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" t="s">
+        <v>236</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" t="s">
+        <v>235</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" t="s">
+        <v>223</v>
+      </c>
+      <c r="D128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" t="s">
+        <v>223</v>
+      </c>
+      <c r="D129" t="s">
         <v>238</v>
       </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" t="s">
+        <v>264</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" t="s">
+        <v>269</v>
+      </c>
+      <c r="D131" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" t="s">
+        <v>266</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>241</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" t="s">
+        <v>241</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>242</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="s">
+        <v>273</v>
+      </c>
+      <c r="D134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" t="s">
+        <v>269</v>
+      </c>
+      <c r="D135" t="s">
+        <v>243</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="D136" t="s">
+        <v>244</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" t="s">
+        <v>245</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" t="s">
+        <v>246</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" t="s">
+        <v>247</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" t="s">
+        <v>269</v>
+      </c>
+      <c r="D140" t="s">
+        <v>248</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" t="s">
+        <v>249</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>250</v>
+      </c>
+      <c r="B142" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" t="s">
+        <v>272</v>
+      </c>
+      <c r="D142" t="s">
+        <v>250</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>251</v>
+      </c>
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" t="s">
+        <v>272</v>
+      </c>
+      <c r="D143" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>252</v>
+      </c>
+      <c r="B144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" t="s">
+        <v>273</v>
+      </c>
+      <c r="D144" t="s">
+        <v>252</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" t="s">
+        <v>269</v>
+      </c>
+      <c r="D145" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E145" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521E9982-C8FF-4677-9B2A-CE42C2E325DC}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B10F6F0F-E3E7-4CC3-9407-12908AD7D6C8}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,14 +1190,14 @@
   <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="110.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" customWidth="1"/>
+    <col min="2" max="2" width="126.453125" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>

--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B10F6F0F-E3E7-4CC3-9407-12908AD7D6C8}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3417C8-0FA8-41A6-9B0E-D1594C1341FE}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$224</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="352">
   <si>
     <t>municipality_code</t>
   </si>
@@ -642,9 +642,6 @@
     <t xml:space="preserve">variable_name </t>
   </si>
   <si>
-    <t>variable _description</t>
-  </si>
-  <si>
     <t>new_label</t>
   </si>
   <si>
@@ -837,9 +834,6 @@
     <t>population_total_log</t>
   </si>
   <si>
-    <t>home_appliances</t>
-  </si>
-  <si>
     <t>rolny_revenue_ratio</t>
   </si>
   <si>
@@ -855,20 +849,260 @@
     <t>logatythm of population_total</t>
   </si>
   <si>
-    <t>sum of installations_toilet,installations_bathroom, installations_central_heating, installations_network_gas</t>
-  </si>
-  <si>
     <t>bdl</t>
   </si>
   <si>
     <t>own</t>
+  </si>
+  <si>
+    <t>municipality_name</t>
+  </si>
+  <si>
+    <t>percent_vaccinated</t>
+  </si>
+  <si>
+    <t>Austrian</t>
+  </si>
+  <si>
+    <t>pop_t_0_4_perc</t>
+  </si>
+  <si>
+    <t>pop_m_0_4_perc</t>
+  </si>
+  <si>
+    <t>pop_f_0_4_perc</t>
+  </si>
+  <si>
+    <t>pop_t_5_9_perc</t>
+  </si>
+  <si>
+    <t>pop_m_5_9_perc</t>
+  </si>
+  <si>
+    <t>pop_f_5_9_perc</t>
+  </si>
+  <si>
+    <t>pop_t_10_14_perc</t>
+  </si>
+  <si>
+    <t>pop_m_10_14_perc</t>
+  </si>
+  <si>
+    <t>pop_f_10_14_perc</t>
+  </si>
+  <si>
+    <t>pop_t_15_19_perc</t>
+  </si>
+  <si>
+    <t>pop_m_15_19_perc</t>
+  </si>
+  <si>
+    <t>pop_f_15_19_perc</t>
+  </si>
+  <si>
+    <t>pop_t_20_24_perc</t>
+  </si>
+  <si>
+    <t>pop_m_20_24_perc</t>
+  </si>
+  <si>
+    <t>pop_f_20_24_perc</t>
+  </si>
+  <si>
+    <t>pop_t_25_29_perc</t>
+  </si>
+  <si>
+    <t>pop_m_25_29_perc</t>
+  </si>
+  <si>
+    <t>pop_f_25_29_perc</t>
+  </si>
+  <si>
+    <t>pop_t_30_34_perc</t>
+  </si>
+  <si>
+    <t>pop_m_30_34_perc</t>
+  </si>
+  <si>
+    <t>pop_f_30_34_perc</t>
+  </si>
+  <si>
+    <t>pop_t_35_39_perc</t>
+  </si>
+  <si>
+    <t>pop_m_35_39_perc</t>
+  </si>
+  <si>
+    <t>pop_f_35_39_perc</t>
+  </si>
+  <si>
+    <t>pop_t_40_44_perc</t>
+  </si>
+  <si>
+    <t>pop_m_40_44_perc</t>
+  </si>
+  <si>
+    <t>pop_f_40_44_perc</t>
+  </si>
+  <si>
+    <t>pop_t_45_49_perc</t>
+  </si>
+  <si>
+    <t>pop_m_45_49_perc</t>
+  </si>
+  <si>
+    <t>pop_f_45_49_perc</t>
+  </si>
+  <si>
+    <t>pop_t_50_54_perc</t>
+  </si>
+  <si>
+    <t>pop_m_50_54_perc</t>
+  </si>
+  <si>
+    <t>pop_f_50_54_perc</t>
+  </si>
+  <si>
+    <t>pop_t_55_59_perc</t>
+  </si>
+  <si>
+    <t>pop_m_55_59_perc</t>
+  </si>
+  <si>
+    <t>pop_f_55_59_perc</t>
+  </si>
+  <si>
+    <t>pop_t_60_64_perc</t>
+  </si>
+  <si>
+    <t>pop_m_60_64_perc</t>
+  </si>
+  <si>
+    <t>pop_f_60_64_perc</t>
+  </si>
+  <si>
+    <t>pop_t_65_69_perc</t>
+  </si>
+  <si>
+    <t>pop_m_65_69_perc</t>
+  </si>
+  <si>
+    <t>pop_f_65_69_perc</t>
+  </si>
+  <si>
+    <t>pop_t_70_74_perc</t>
+  </si>
+  <si>
+    <t>pop_m_70_74_perc</t>
+  </si>
+  <si>
+    <t>pop_f_70_74_perc</t>
+  </si>
+  <si>
+    <t>pop_t_75_79_perc</t>
+  </si>
+  <si>
+    <t>pop_m_75_79_perc</t>
+  </si>
+  <si>
+    <t>pop_f_75_79_perc</t>
+  </si>
+  <si>
+    <t>pop_t_80_84_perc</t>
+  </si>
+  <si>
+    <t>pop_m_80_84_perc</t>
+  </si>
+  <si>
+    <t>pop_f_80_84_perc</t>
+  </si>
+  <si>
+    <t>pop_m_0_19_perc</t>
+  </si>
+  <si>
+    <t>pop_f_0_19_perc</t>
+  </si>
+  <si>
+    <t>pop_m_40_49_perc</t>
+  </si>
+  <si>
+    <t>pop_f_40_49_perc</t>
+  </si>
+  <si>
+    <t>pop_m_20_29_perc</t>
+  </si>
+  <si>
+    <t>pop_f_20_29_perc</t>
+  </si>
+  <si>
+    <t>pop_m_30_39_perc</t>
+  </si>
+  <si>
+    <t>pop_f_30_39_perc</t>
+  </si>
+  <si>
+    <t>pop_m_50_59_perc</t>
+  </si>
+  <si>
+    <t>pop_f_50_59_perc</t>
+  </si>
+  <si>
+    <t>pop_m_60_84_perc</t>
+  </si>
+  <si>
+    <t>pop_f_60_84_perc</t>
+  </si>
+  <si>
+    <t>pop_m_all_perc</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>unemployment_50</t>
+  </si>
+  <si>
+    <t>unemployment_25</t>
+  </si>
+  <si>
+    <t>county_name</t>
+  </si>
+  <si>
+    <t>type_agr</t>
+  </si>
+  <si>
+    <t>type_0_20k</t>
+  </si>
+  <si>
+    <t>type_50_100k</t>
+  </si>
+  <si>
+    <t>type_500k+</t>
+  </si>
+  <si>
+    <t>type_100_500k</t>
+  </si>
+  <si>
+    <t>name of municipality</t>
+  </si>
+  <si>
+    <t>sec_pow</t>
+  </si>
+  <si>
+    <t>variable_description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +1112,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -903,9 +1145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,40 +1431,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.81640625" customWidth="1"/>
-    <col min="2" max="2" width="126.453125" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="2" max="2" width="81.453125" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="C1" t="s">
         <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1236,991 +1482,829 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>195</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>196</v>
       </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
         <v>195</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
         <v>21</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" t="s">
         <v>23</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
         <v>26</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" t="s">
         <v>29</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
         <v>30</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>130</v>
       </c>
-      <c r="C36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>131</v>
       </c>
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>132</v>
       </c>
-      <c r="C38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
         <v>35</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
         <v>36</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>134</v>
       </c>
-      <c r="C40" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
         <v>37</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="C41" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
         <v>38</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>136</v>
       </c>
-      <c r="C42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
         <v>39</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>137</v>
       </c>
-      <c r="C43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>138</v>
       </c>
-      <c r="C44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
         <v>41</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>139</v>
       </c>
-      <c r="C45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
         <v>42</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
         <v>43</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>141</v>
       </c>
-      <c r="C47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
         <v>44</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>142</v>
       </c>
-      <c r="C48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
         <v>45</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>46</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" t="s">
         <v>46</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>144</v>
       </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
         <v>47</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>48</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>145</v>
       </c>
-      <c r="C51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s">
         <v>48</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>146</v>
       </c>
-      <c r="C52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" t="s">
         <v>49</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>147</v>
       </c>
-      <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" t="s">
         <v>50</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>51</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>148</v>
       </c>
-      <c r="C54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" t="s">
         <v>51</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>149</v>
       </c>
-      <c r="C55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>53</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>150</v>
       </c>
-      <c r="C56" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" t="s">
         <v>53</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
         <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
         <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2228,33 +2312,30 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
         <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
         <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2262,16 +2343,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
         <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2279,33 +2360,30 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
         <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
         <v>198</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2313,16 +2391,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
         <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2330,33 +2408,30 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
         <v>198</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
         <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2364,16 +2439,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
         <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2381,50 +2456,44 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
         <v>198</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
         <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
         <v>198</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2432,33 +2501,30 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
         <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
         <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2466,16 +2532,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
         <v>198</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2483,16 +2549,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
         <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2500,16 +2566,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
         <v>198</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2517,16 +2583,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
         <v>198</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2534,169 +2600,142 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
         <v>198</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
         <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
         <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
         <v>198</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
         <v>198</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
         <v>198</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
         <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>83</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
         <v>198</v>
       </c>
       <c r="D86" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
         <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
         <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2704,16 +2743,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
         <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2721,33 +2760,30 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
         <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2755,16 +2791,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
         <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2772,33 +2808,30 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
         <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
         <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2806,16 +2839,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
         <v>198</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2823,33 +2856,30 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
         <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
         <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2857,16 +2887,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
         <v>198</v>
       </c>
       <c r="D98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2874,16 +2904,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
         <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2891,33 +2921,30 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>254</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="D101" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2925,16 +2952,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B102" t="s">
         <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2942,16 +2969,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B103" t="s">
         <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D103" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2959,16 +2986,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
         <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D104" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2976,258 +3003,231 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>259</v>
-      </c>
-      <c r="B105" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="C105" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D105" t="s">
-        <v>259</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
         <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="B107" t="s">
         <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
-      </c>
-      <c r="D107" t="s">
-        <v>261</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="D107" t="str">
+        <f>LOWER(A107)</f>
+        <v>gmina</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="B108" t="s">
         <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
-      </c>
-      <c r="D108" t="s">
-        <v>262</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" ref="D108:D110" si="0">LOWER(A108)</f>
+        <v>powiat</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="B109" t="s">
         <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>268</v>
-      </c>
-      <c r="D109" t="s">
-        <v>263</v>
+        <v>222</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="0"/>
+        <v>województwo</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
         <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
-      </c>
-      <c r="D110" t="s">
         <v>222</v>
       </c>
+      <c r="D110" t="str">
+        <f t="shared" si="0"/>
+        <v>frekwencja</v>
+      </c>
       <c r="E110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B111" t="s">
         <v>59</v>
       </c>
       <c r="C111" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" t="s">
         <v>223</v>
       </c>
-      <c r="D111" t="str">
-        <f>LOWER(A111)</f>
-        <v>gmina</v>
-      </c>
       <c r="E111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" t="str">
-        <f t="shared" ref="D112:D114" si="0">LOWER(A112)</f>
-        <v>powiat</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="D112" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
         <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="0"/>
-        <v>województwo</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="D113" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B114" t="s">
         <v>59</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="0"/>
-        <v>frekwencja</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="D114" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
       </c>
       <c r="C115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D115" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
         <v>59</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D116" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B117" t="s">
         <v>59</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D117" t="s">
-        <v>226</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B118" t="s">
         <v>59</v>
       </c>
       <c r="C118" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D118" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D119" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3235,454 +3235,1269 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
         <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D120" t="s">
-        <v>229</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
         <v>59</v>
       </c>
       <c r="C122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
         <v>59</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B125" t="s">
         <v>59</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>218</v>
-      </c>
-      <c r="B126" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="C127" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="D127" t="s">
-        <v>235</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>220</v>
-      </c>
-      <c r="B128" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="C128" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="D128" t="s">
-        <v>237</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>221</v>
-      </c>
-      <c r="B129" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="C129" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="D129" t="s">
-        <v>238</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" t="s">
+        <v>267</v>
+      </c>
+      <c r="D130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>279</v>
+      </c>
+      <c r="C131" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" t="s">
+        <v>267</v>
+      </c>
+      <c r="D133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" t="s">
+        <v>267</v>
+      </c>
+      <c r="D134" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135" t="s">
+        <v>267</v>
+      </c>
+      <c r="D135" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" t="s">
+        <v>267</v>
+      </c>
+      <c r="D136" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" t="s">
+        <v>267</v>
+      </c>
+      <c r="D137" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" t="s">
+        <v>267</v>
+      </c>
+      <c r="D138" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" t="s">
+        <v>267</v>
+      </c>
+      <c r="D139" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" t="s">
+        <v>267</v>
+      </c>
+      <c r="D140" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" t="s">
+        <v>267</v>
+      </c>
+      <c r="D141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" t="s">
+        <v>267</v>
+      </c>
+      <c r="D143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" t="s">
+        <v>267</v>
+      </c>
+      <c r="D144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" t="s">
+        <v>267</v>
+      </c>
+      <c r="D145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="s">
+        <v>267</v>
+      </c>
+      <c r="D146" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" t="s">
+        <v>267</v>
+      </c>
+      <c r="D147" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" t="s">
+        <v>267</v>
+      </c>
+      <c r="D148" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" t="s">
+        <v>267</v>
+      </c>
+      <c r="D149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" t="s">
+        <v>267</v>
+      </c>
+      <c r="D150" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" t="s">
+        <v>267</v>
+      </c>
+      <c r="D152" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" t="s">
+        <v>267</v>
+      </c>
+      <c r="D153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" t="s">
+        <v>267</v>
+      </c>
+      <c r="D154" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="C155" t="s">
+        <v>267</v>
+      </c>
+      <c r="D155" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>304</v>
+      </c>
+      <c r="C156" t="s">
+        <v>267</v>
+      </c>
+      <c r="D156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" t="s">
+        <v>267</v>
+      </c>
+      <c r="D157" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>306</v>
+      </c>
+      <c r="C158" t="s">
+        <v>267</v>
+      </c>
+      <c r="D158" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>307</v>
+      </c>
+      <c r="C159" t="s">
+        <v>267</v>
+      </c>
+      <c r="D159" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>308</v>
+      </c>
+      <c r="C160" t="s">
+        <v>267</v>
+      </c>
+      <c r="D160" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>309</v>
+      </c>
+      <c r="C161" t="s">
+        <v>267</v>
+      </c>
+      <c r="D161" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" t="s">
+        <v>267</v>
+      </c>
+      <c r="D162" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>311</v>
+      </c>
+      <c r="C163" t="s">
+        <v>267</v>
+      </c>
+      <c r="D163" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>312</v>
+      </c>
+      <c r="C164" t="s">
+        <v>267</v>
+      </c>
+      <c r="D164" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>313</v>
+      </c>
+      <c r="C165" t="s">
+        <v>267</v>
+      </c>
+      <c r="D165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>314</v>
+      </c>
+      <c r="C166" t="s">
+        <v>267</v>
+      </c>
+      <c r="D166" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>315</v>
+      </c>
+      <c r="C167" t="s">
+        <v>267</v>
+      </c>
+      <c r="D167" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>316</v>
+      </c>
+      <c r="C168" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" t="s">
+        <v>267</v>
+      </c>
+      <c r="D169" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>318</v>
+      </c>
+      <c r="C170" t="s">
+        <v>267</v>
+      </c>
+      <c r="D170" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>319</v>
+      </c>
+      <c r="C171" t="s">
+        <v>267</v>
+      </c>
+      <c r="D171" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>320</v>
+      </c>
+      <c r="C172" t="s">
+        <v>267</v>
+      </c>
+      <c r="D172" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>321</v>
+      </c>
+      <c r="C173" t="s">
+        <v>267</v>
+      </c>
+      <c r="D173" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>322</v>
+      </c>
+      <c r="C174" t="s">
+        <v>267</v>
+      </c>
+      <c r="D174" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>323</v>
+      </c>
+      <c r="C175" t="s">
+        <v>267</v>
+      </c>
+      <c r="D175" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>324</v>
+      </c>
+      <c r="C176" t="s">
+        <v>267</v>
+      </c>
+      <c r="D176" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>242</v>
+      </c>
+      <c r="C177" t="s">
+        <v>267</v>
+      </c>
+      <c r="D177" t="s">
+        <v>242</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" t="s">
+        <v>267</v>
+      </c>
+      <c r="D178" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>326</v>
+      </c>
+      <c r="C179" t="s">
+        <v>267</v>
+      </c>
+      <c r="D179" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>243</v>
+      </c>
+      <c r="C180" t="s">
+        <v>267</v>
+      </c>
+      <c r="D180" t="s">
+        <v>243</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>327</v>
+      </c>
+      <c r="C181" t="s">
+        <v>267</v>
+      </c>
+      <c r="D181" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>328</v>
+      </c>
+      <c r="C182" t="s">
+        <v>267</v>
+      </c>
+      <c r="D182" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>244</v>
+      </c>
+      <c r="C183" t="s">
+        <v>267</v>
+      </c>
+      <c r="D183" t="s">
+        <v>244</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>329</v>
+      </c>
+      <c r="C184" t="s">
+        <v>267</v>
+      </c>
+      <c r="D184" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>330</v>
+      </c>
+      <c r="C185" t="s">
+        <v>267</v>
+      </c>
+      <c r="D185" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>245</v>
+      </c>
+      <c r="C186" t="s">
+        <v>267</v>
+      </c>
+      <c r="D186" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>331</v>
+      </c>
+      <c r="C187" t="s">
+        <v>267</v>
+      </c>
+      <c r="D187" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>332</v>
+      </c>
+      <c r="C188" t="s">
+        <v>267</v>
+      </c>
+      <c r="D188" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>246</v>
+      </c>
+      <c r="C189" t="s">
+        <v>267</v>
+      </c>
+      <c r="D189" t="s">
+        <v>246</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" t="s">
+        <v>267</v>
+      </c>
+      <c r="D190" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>334</v>
+      </c>
+      <c r="C191" t="s">
+        <v>267</v>
+      </c>
+      <c r="D191" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>247</v>
+      </c>
+      <c r="C192" t="s">
+        <v>267</v>
+      </c>
+      <c r="D192" t="s">
+        <v>247</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>335</v>
+      </c>
+      <c r="C193" t="s">
+        <v>267</v>
+      </c>
+      <c r="D193" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>336</v>
+      </c>
+      <c r="C194" t="s">
+        <v>267</v>
+      </c>
+      <c r="D194" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>337</v>
+      </c>
+      <c r="C195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D195" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>248</v>
+      </c>
+      <c r="C196" t="s">
+        <v>267</v>
+      </c>
+      <c r="D196" t="s">
+        <v>248</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>263</v>
+      </c>
+      <c r="B197" t="s">
+        <v>268</v>
+      </c>
+      <c r="C197" t="s">
+        <v>267</v>
+      </c>
+      <c r="D197" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>338</v>
+      </c>
+      <c r="C198" t="s">
+        <v>269</v>
+      </c>
+      <c r="D198" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>339</v>
+      </c>
+      <c r="C199" t="s">
+        <v>269</v>
+      </c>
+      <c r="D199" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>340</v>
+      </c>
+      <c r="C200" t="s">
+        <v>269</v>
+      </c>
+      <c r="D200" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>249</v>
+      </c>
+      <c r="C201" t="s">
+        <v>269</v>
+      </c>
+      <c r="D201" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>250</v>
+      </c>
+      <c r="C202" t="s">
+        <v>269</v>
+      </c>
+      <c r="D202" t="s">
+        <v>250</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>341</v>
+      </c>
+      <c r="C203" t="s">
+        <v>269</v>
+      </c>
+      <c r="D203" t="s">
+        <v>341</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>342</v>
+      </c>
+      <c r="C204" t="s">
+        <v>269</v>
+      </c>
+      <c r="D204" t="s">
+        <v>342</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>251</v>
+      </c>
+      <c r="C205" t="s">
+        <v>267</v>
+      </c>
+      <c r="D205" t="s">
+        <v>251</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>252</v>
+      </c>
+      <c r="C206" t="s">
+        <v>267</v>
+      </c>
+      <c r="D206" t="s">
+        <v>252</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>343</v>
+      </c>
+      <c r="C207" t="s">
+        <v>350</v>
+      </c>
+      <c r="D207" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>253</v>
+      </c>
+      <c r="C208" t="s">
+        <v>350</v>
+      </c>
+      <c r="D208" t="s">
+        <v>253</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>254</v>
+      </c>
+      <c r="C209" t="s">
+        <v>350</v>
+      </c>
+      <c r="D209" t="s">
+        <v>254</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>255</v>
+      </c>
+      <c r="C210" t="s">
+        <v>350</v>
+      </c>
+      <c r="D210" t="s">
+        <v>255</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>256</v>
+      </c>
+      <c r="C211" t="s">
+        <v>350</v>
+      </c>
+      <c r="D211" t="s">
+        <v>256</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>257</v>
+      </c>
+      <c r="C212" t="s">
+        <v>350</v>
+      </c>
+      <c r="D212" t="s">
+        <v>257</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>258</v>
+      </c>
+      <c r="C213" t="s">
+        <v>350</v>
+      </c>
+      <c r="D213" t="s">
+        <v>258</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>259</v>
+      </c>
+      <c r="C214" t="s">
+        <v>350</v>
+      </c>
+      <c r="D214" t="s">
+        <v>259</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>260</v>
+      </c>
+      <c r="C215" t="s">
+        <v>350</v>
+      </c>
+      <c r="D215" t="s">
+        <v>260</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>261</v>
+      </c>
+      <c r="C216" t="s">
+        <v>350</v>
+      </c>
+      <c r="D216" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>262</v>
+      </c>
+      <c r="C217" t="s">
+        <v>350</v>
+      </c>
+      <c r="D217" t="s">
+        <v>262</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>263</v>
+      </c>
+      <c r="C218" t="s">
+        <v>350</v>
+      </c>
+      <c r="D218" t="s">
+        <v>263</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>264</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C219" t="s">
+        <v>267</v>
+      </c>
+      <c r="D219" t="s">
+        <v>264</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>344</v>
+      </c>
+      <c r="C220" t="s">
         <v>270</v>
       </c>
-      <c r="C130" t="s">
-        <v>269</v>
-      </c>
-      <c r="D130" t="s">
-        <v>264</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>265</v>
-      </c>
-      <c r="B131" t="s">
-        <v>271</v>
-      </c>
-      <c r="C131" t="s">
-        <v>269</v>
-      </c>
-      <c r="D131" t="s">
-        <v>265</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>266</v>
-      </c>
-      <c r="B132" t="s">
-        <v>59</v>
-      </c>
-      <c r="C132" t="s">
-        <v>269</v>
-      </c>
-      <c r="D132" t="s">
-        <v>266</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>241</v>
-      </c>
-      <c r="B133" t="s">
-        <v>59</v>
-      </c>
-      <c r="C133" t="s">
-        <v>273</v>
-      </c>
-      <c r="D133" t="s">
-        <v>241</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>242</v>
-      </c>
-      <c r="B134" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" t="s">
-        <v>273</v>
-      </c>
-      <c r="D134" t="s">
-        <v>242</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>243</v>
-      </c>
-      <c r="B135" t="s">
-        <v>59</v>
-      </c>
-      <c r="C135" t="s">
-        <v>269</v>
-      </c>
-      <c r="D135" t="s">
-        <v>243</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>244</v>
-      </c>
-      <c r="B136" t="s">
-        <v>59</v>
-      </c>
-      <c r="C136" t="s">
-        <v>269</v>
-      </c>
-      <c r="D136" t="s">
-        <v>244</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>245</v>
-      </c>
-      <c r="B137" t="s">
-        <v>59</v>
-      </c>
-      <c r="C137" t="s">
-        <v>269</v>
-      </c>
-      <c r="D137" t="s">
-        <v>245</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>246</v>
-      </c>
-      <c r="B138" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138" t="s">
-        <v>269</v>
-      </c>
-      <c r="D138" t="s">
-        <v>246</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>247</v>
-      </c>
-      <c r="B139" t="s">
-        <v>59</v>
-      </c>
-      <c r="C139" t="s">
-        <v>269</v>
-      </c>
-      <c r="D139" t="s">
-        <v>247</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>248</v>
-      </c>
-      <c r="B140" t="s">
-        <v>59</v>
-      </c>
-      <c r="C140" t="s">
-        <v>269</v>
-      </c>
-      <c r="D140" t="s">
-        <v>248</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>249</v>
-      </c>
-      <c r="B141" t="s">
-        <v>59</v>
-      </c>
-      <c r="C141" t="s">
-        <v>269</v>
-      </c>
-      <c r="D141" t="s">
-        <v>249</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>250</v>
-      </c>
-      <c r="B142" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142" t="s">
-        <v>272</v>
-      </c>
-      <c r="D142" t="s">
-        <v>250</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>251</v>
-      </c>
-      <c r="B143" t="s">
-        <v>59</v>
-      </c>
-      <c r="C143" t="s">
-        <v>272</v>
-      </c>
-      <c r="D143" t="s">
-        <v>251</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>252</v>
-      </c>
-      <c r="B144" t="s">
-        <v>59</v>
-      </c>
-      <c r="C144" t="s">
-        <v>273</v>
-      </c>
-      <c r="D144" t="s">
-        <v>252</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>253</v>
-      </c>
-      <c r="B145" t="s">
-        <v>59</v>
-      </c>
-      <c r="C145" t="s">
-        <v>269</v>
-      </c>
-      <c r="D145" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145">
+      <c r="D220" t="s">
+        <v>344</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>345</v>
+      </c>
+      <c r="C221" t="s">
+        <v>270</v>
+      </c>
+      <c r="D221" t="s">
+        <v>345</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>346</v>
+      </c>
+      <c r="C222" t="s">
+        <v>270</v>
+      </c>
+      <c r="D222" t="s">
+        <v>346</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>347</v>
+      </c>
+      <c r="C223" t="s">
+        <v>270</v>
+      </c>
+      <c r="D223" t="s">
+        <v>347</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>348</v>
+      </c>
+      <c r="C224" t="s">
+        <v>270</v>
+      </c>
+      <c r="D224" t="s">
+        <v>348</v>
+      </c>
+      <c r="E224">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E145" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E224" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3700,10 +4515,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">

--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3417C8-0FA8-41A6-9B0E-D1594C1341FE}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD6D724-DD5C-40F9-A3FB-C5116DF7E6E9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="357">
   <si>
     <t>municipality_code</t>
   </si>
@@ -1096,6 +1096,21 @@
   </si>
   <si>
     <t>variable_description</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
+  </si>
+  <si>
+    <t>type_20_50k</t>
+  </si>
+  <si>
+    <t>type as one categorial variable (cities size)</t>
+  </si>
+  <si>
+    <t>mixed, urban or rural according to TERYT code</t>
   </si>
 </sst>
 </file>
@@ -1431,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4428,55 +4443,52 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>344</v>
+        <v>352</v>
+      </c>
+      <c r="B220" t="s">
+        <v>356</v>
       </c>
       <c r="C220" t="s">
         <v>270</v>
       </c>
       <c r="D220" t="s">
-        <v>344</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
+        <v>352</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>345</v>
+        <v>353</v>
+      </c>
+      <c r="B221" t="s">
+        <v>355</v>
       </c>
       <c r="C221" t="s">
         <v>270</v>
       </c>
       <c r="D221" t="s">
-        <v>345</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
+        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C222" t="s">
         <v>270</v>
       </c>
       <c r="D222" t="s">
-        <v>346</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
+        <v>354</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C223" t="s">
         <v>270</v>
       </c>
       <c r="D223" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -4484,15 +4496,57 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C224" t="s">
         <v>270</v>
       </c>
       <c r="D224" t="s">
+        <v>345</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>346</v>
+      </c>
+      <c r="C225" t="s">
+        <v>270</v>
+      </c>
+      <c r="D225" t="s">
+        <v>346</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>347</v>
+      </c>
+      <c r="C226" t="s">
+        <v>270</v>
+      </c>
+      <c r="D226" t="s">
+        <v>347</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>348</v>
       </c>
-      <c r="E224">
+      <c r="C227" t="s">
+        <v>270</v>
+      </c>
+      <c r="D227" t="s">
+        <v>348</v>
+      </c>
+      <c r="E227">
         <v>1</v>
       </c>
     </row>

--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD6D724-DD5C-40F9-A3FB-C5116DF7E6E9}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99A1826-D04E-4387-83AF-AB96C060831C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$235</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="356">
   <si>
     <t>municipality_code</t>
   </si>
@@ -846,9 +847,6 @@
     <t>transformation</t>
   </si>
   <si>
-    <t>logatythm of population_total</t>
-  </si>
-  <si>
     <t>bdl</t>
   </si>
   <si>
@@ -1107,17 +1105,17 @@
     <t>type_20_50k</t>
   </si>
   <si>
-    <t>type as one categorial variable (cities size)</t>
-  </si>
-  <si>
-    <t>mixed, urban or rural according to TERYT code</t>
+    <t>województwo</t>
+  </si>
+  <si>
+    <t>frekwencja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,6 +1136,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1160,11 +1165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,866 +1454,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G227"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.26953125" customWidth="1"/>
-    <col min="2" max="2" width="81.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="66.54296875" customWidth="1"/>
+    <col min="6" max="6" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>194</v>
       </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>271</v>
       </c>
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
         <v>271</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>195</v>
       </c>
       <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>196</v>
       </c>
-      <c r="C5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>99</v>
       </c>
-      <c r="C7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>102</v>
       </c>
-      <c r="C10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>104</v>
       </c>
-      <c r="C12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>105</v>
       </c>
-      <c r="C13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>108</v>
       </c>
-      <c r="C16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>109</v>
       </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>111</v>
       </c>
-      <c r="C19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
         <v>113</v>
       </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
         <v>114</v>
       </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
         <v>115</v>
       </c>
-      <c r="C23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
         <v>118</v>
       </c>
-      <c r="C26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
         <v>120</v>
       </c>
-      <c r="C28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
         <v>122</v>
       </c>
-      <c r="C30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
         <v>123</v>
       </c>
-      <c r="C31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
         <v>125</v>
       </c>
-      <c r="C33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
         <v>126</v>
       </c>
-      <c r="C34" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
         <v>127</v>
       </c>
-      <c r="C35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
         <v>128</v>
       </c>
-      <c r="C36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
         <v>130</v>
       </c>
-      <c r="C38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
         <v>131</v>
       </c>
-      <c r="C39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
         <v>132</v>
       </c>
-      <c r="C40" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
         <v>133</v>
       </c>
-      <c r="C41" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
         <v>134</v>
       </c>
-      <c r="C42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
         <v>135</v>
       </c>
-      <c r="C43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>39</v>
       </c>
       <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
         <v>136</v>
       </c>
-      <c r="C44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
         <v>138</v>
       </c>
-      <c r="C46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>42</v>
       </c>
       <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
         <v>140</v>
       </c>
-      <c r="C48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
         <v>141</v>
       </c>
-      <c r="C49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>45</v>
       </c>
       <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
         <v>142</v>
       </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>46</v>
       </c>
       <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
         <v>143</v>
       </c>
-      <c r="C51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
         <v>144</v>
       </c>
-      <c r="C52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>48</v>
       </c>
       <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
         <v>145</v>
       </c>
-      <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
         <v>146</v>
       </c>
-      <c r="C54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>50</v>
       </c>
       <c r="B55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
         <v>147</v>
       </c>
-      <c r="C55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>51</v>
       </c>
       <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
         <v>148</v>
       </c>
-      <c r="C56" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>52</v>
       </c>
       <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
         <v>149</v>
       </c>
-      <c r="C57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>53</v>
       </c>
       <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
         <v>150</v>
       </c>
-      <c r="C58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>54</v>
       </c>
       <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
         <v>151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2313,30 +2319,30 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>152</v>
       </c>
-      <c r="C60" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>56</v>
       </c>
       <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>198</v>
-      </c>
-      <c r="D61" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2344,16 +2350,16 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
         <v>154</v>
-      </c>
-      <c r="C62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2361,30 +2367,30 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>155</v>
       </c>
-      <c r="C63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
       <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
         <v>156</v>
-      </c>
-      <c r="C64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2392,16 +2398,16 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>182</v>
-      </c>
-      <c r="C65" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2409,30 +2415,30 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
         <v>183</v>
       </c>
-      <c r="C66" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" t="s">
         <v>184</v>
-      </c>
-      <c r="C67" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2440,16 +2446,16 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>185</v>
-      </c>
-      <c r="C68" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2457,44 +2463,44 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>186</v>
       </c>
-      <c r="C69" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>66</v>
       </c>
       <c r="B70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
         <v>157</v>
       </c>
-      <c r="C70" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>67</v>
       </c>
       <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" t="s">
         <v>158</v>
-      </c>
-      <c r="C71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2502,30 +2508,30 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
         <v>159</v>
       </c>
-      <c r="C72" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>69</v>
       </c>
       <c r="B73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" t="s">
         <v>160</v>
-      </c>
-      <c r="C73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2533,16 +2539,16 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>161</v>
-      </c>
-      <c r="C74" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2550,16 +2556,16 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
         <v>162</v>
-      </c>
-      <c r="C75" t="s">
-        <v>198</v>
-      </c>
-      <c r="D75" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2567,16 +2573,16 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
         <v>163</v>
-      </c>
-      <c r="C76" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2584,16 +2590,16 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
         <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2601,142 +2607,142 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
         <v>165</v>
       </c>
-      <c r="C78" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>75</v>
       </c>
       <c r="B79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" t="s">
         <v>166</v>
       </c>
-      <c r="C79" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>76</v>
       </c>
       <c r="B80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" t="s">
         <v>167</v>
       </c>
-      <c r="C80" t="s">
-        <v>198</v>
-      </c>
-      <c r="D80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>77</v>
       </c>
       <c r="B81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" t="s">
         <v>168</v>
       </c>
-      <c r="C81" t="s">
-        <v>198</v>
-      </c>
-      <c r="D81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>78</v>
       </c>
       <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" t="s">
         <v>169</v>
       </c>
-      <c r="C82" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>79</v>
       </c>
       <c r="B83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" t="s">
         <v>170</v>
       </c>
-      <c r="C83" t="s">
-        <v>198</v>
-      </c>
-      <c r="D83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>80</v>
       </c>
       <c r="B84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
         <v>171</v>
       </c>
-      <c r="C84" t="s">
-        <v>198</v>
-      </c>
-      <c r="D84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>81</v>
       </c>
       <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
         <v>193</v>
       </c>
-      <c r="C85" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>82</v>
       </c>
       <c r="B86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
         <v>187</v>
       </c>
-      <c r="C86" t="s">
-        <v>198</v>
-      </c>
-      <c r="D86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>83</v>
       </c>
       <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" t="s">
         <v>188</v>
-      </c>
-      <c r="C87" t="s">
-        <v>198</v>
-      </c>
-      <c r="D87" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2744,16 +2750,16 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
         <v>172</v>
-      </c>
-      <c r="C88" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2761,30 +2767,30 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
         <v>173</v>
       </c>
-      <c r="C89" t="s">
-        <v>198</v>
-      </c>
-      <c r="D89" t="s">
-        <v>85</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>86</v>
       </c>
       <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" t="s">
         <v>174</v>
-      </c>
-      <c r="C90" t="s">
-        <v>198</v>
-      </c>
-      <c r="D90" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2792,16 +2798,16 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
         <v>189</v>
-      </c>
-      <c r="C91" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" t="s">
-        <v>87</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2809,30 +2815,30 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>190</v>
       </c>
-      <c r="C92" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>89</v>
       </c>
       <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" t="s">
         <v>175</v>
-      </c>
-      <c r="C93" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2840,16 +2846,16 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
         <v>191</v>
-      </c>
-      <c r="C94" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2857,30 +2863,30 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
         <v>192</v>
       </c>
-      <c r="C95" t="s">
-        <v>198</v>
-      </c>
-      <c r="D95" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>92</v>
       </c>
       <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" t="s">
         <v>176</v>
-      </c>
-      <c r="C96" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2888,16 +2894,16 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
         <v>177</v>
-      </c>
-      <c r="C97" t="s">
-        <v>198</v>
-      </c>
-      <c r="D97" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2905,16 +2911,16 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
         <v>178</v>
-      </c>
-      <c r="C98" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2922,30 +2928,30 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
         <v>179</v>
       </c>
-      <c r="C99" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" t="s">
-        <v>95</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>96</v>
       </c>
       <c r="B100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" t="s">
         <v>180</v>
-      </c>
-      <c r="C100" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -2953,16 +2959,16 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
         <v>181</v>
-      </c>
-      <c r="C101" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2970,16 +2976,16 @@
         <v>253</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="C102" t="s">
-        <v>266</v>
-      </c>
-      <c r="D102" t="s">
         <v>253</v>
       </c>
-      <c r="E102">
-        <v>1</v>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -2987,16 +2993,16 @@
         <v>240</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>270</v>
-      </c>
-      <c r="D103" t="s">
         <v>240</v>
       </c>
-      <c r="E103">
-        <v>1</v>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -3004,71 +3010,71 @@
         <v>241</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>270</v>
-      </c>
-      <c r="D104" t="s">
         <v>241</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="B105" t="s">
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>270</v>
-      </c>
-      <c r="D105" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
-      </c>
-      <c r="D106" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>202</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" t="s">
         <v>222</v>
       </c>
-      <c r="D107" t="str">
+      <c r="C107" t="str">
         <f>LOWER(A107)</f>
         <v>gmina</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>203</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" t="s">
         <v>222</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" ref="D108:D110" si="0">LOWER(A108)</f>
+      <c r="C108" t="str">
+        <f t="shared" ref="C108:C110" si="0">LOWER(A108)</f>
         <v>powiat</v>
+      </c>
+      <c r="E108" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -3076,17 +3082,17 @@
         <v>204</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" t="s">
         <v>222</v>
       </c>
-      <c r="D109" t="str">
+      <c r="C109" t="str">
         <f t="shared" si="0"/>
         <v>województwo</v>
       </c>
-      <c r="E109">
-        <v>1</v>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -3094,17 +3100,17 @@
         <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" t="s">
         <v>222</v>
       </c>
-      <c r="D110" t="str">
+      <c r="C110" t="str">
         <f t="shared" si="0"/>
         <v>frekwencja</v>
       </c>
-      <c r="E110">
-        <v>1</v>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -3112,58 +3118,58 @@
         <v>206</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
-      </c>
-      <c r="D111" t="s">
         <v>223</v>
       </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>207</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
-        <v>222</v>
-      </c>
-      <c r="D113" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>209</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
-        <v>222</v>
-      </c>
-      <c r="D114" t="s">
         <v>226</v>
+      </c>
+      <c r="E114" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3171,16 +3177,16 @@
         <v>210</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C115" t="s">
-        <v>222</v>
-      </c>
-      <c r="D115" t="s">
         <v>227</v>
       </c>
-      <c r="E115">
-        <v>1</v>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -3188,30 +3194,30 @@
         <v>211</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>222</v>
-      </c>
-      <c r="D116" t="s">
         <v>228</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>212</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C117" t="s">
-        <v>222</v>
-      </c>
-      <c r="D117" t="s">
         <v>229</v>
+      </c>
+      <c r="E117" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3219,16 +3225,16 @@
         <v>213</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C118" t="s">
-        <v>222</v>
-      </c>
-      <c r="D118" t="s">
         <v>230</v>
       </c>
-      <c r="E118">
-        <v>1</v>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -3236,30 +3242,30 @@
         <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
-      </c>
-      <c r="D119" t="s">
         <v>231</v>
       </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
-      </c>
-      <c r="D120" t="s">
         <v>232</v>
+      </c>
+      <c r="E120" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3267,30 +3273,30 @@
         <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>222</v>
-      </c>
-      <c r="D121" t="s">
         <v>233</v>
       </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
-      </c>
-      <c r="D122" t="s">
         <v>235</v>
+      </c>
+      <c r="E122" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -3298,1266 +3304,2195 @@
         <v>218</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
-      </c>
-      <c r="D123" t="s">
         <v>234</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
-      </c>
-      <c r="D124" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>220</v>
       </c>
       <c r="B125" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
-      </c>
-      <c r="D125" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>274</v>
       </c>
-      <c r="C126" t="s">
-        <v>267</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>275</v>
       </c>
-      <c r="C127" t="s">
-        <v>267</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="B128" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>276</v>
       </c>
-      <c r="C128" t="s">
-        <v>267</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="B129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>277</v>
       </c>
-      <c r="C129" t="s">
-        <v>267</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="B130" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>278</v>
       </c>
-      <c r="C130" t="s">
-        <v>267</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="B131" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>279</v>
       </c>
-      <c r="C131" t="s">
-        <v>267</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="B132" t="s">
+        <v>267</v>
+      </c>
+      <c r="C132" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>280</v>
       </c>
-      <c r="C132" t="s">
-        <v>267</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>281</v>
       </c>
-      <c r="C133" t="s">
-        <v>267</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>282</v>
       </c>
-      <c r="C134" t="s">
-        <v>267</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>283</v>
       </c>
-      <c r="C135" t="s">
-        <v>267</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>284</v>
       </c>
-      <c r="C136" t="s">
-        <v>267</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="B137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>285</v>
       </c>
-      <c r="C137" t="s">
-        <v>267</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="B138" t="s">
+        <v>267</v>
+      </c>
+      <c r="C138" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>286</v>
       </c>
-      <c r="C138" t="s">
-        <v>267</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="B139" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>287</v>
       </c>
-      <c r="C139" t="s">
-        <v>267</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="B140" t="s">
+        <v>267</v>
+      </c>
+      <c r="C140" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>288</v>
       </c>
-      <c r="C140" t="s">
-        <v>267</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="B141" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>289</v>
       </c>
-      <c r="C141" t="s">
-        <v>267</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="B142" t="s">
+        <v>267</v>
+      </c>
+      <c r="C142" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>290</v>
       </c>
-      <c r="C142" t="s">
-        <v>267</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="B143" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>291</v>
       </c>
-      <c r="C143" t="s">
-        <v>267</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+      <c r="C144" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>292</v>
       </c>
-      <c r="C144" t="s">
-        <v>267</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="B145" t="s">
+        <v>267</v>
+      </c>
+      <c r="C145" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>293</v>
       </c>
-      <c r="C145" t="s">
-        <v>267</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="B146" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>294</v>
       </c>
-      <c r="C146" t="s">
-        <v>267</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="B147" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>295</v>
       </c>
-      <c r="C147" t="s">
-        <v>267</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="B148" t="s">
+        <v>267</v>
+      </c>
+      <c r="C148" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>296</v>
       </c>
-      <c r="C148" t="s">
-        <v>267</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="B149" t="s">
+        <v>267</v>
+      </c>
+      <c r="C149" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>297</v>
       </c>
-      <c r="C149" t="s">
-        <v>267</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="B150" t="s">
+        <v>267</v>
+      </c>
+      <c r="C150" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>298</v>
       </c>
-      <c r="C150" t="s">
-        <v>267</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="B151" t="s">
+        <v>267</v>
+      </c>
+      <c r="C151" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>299</v>
       </c>
-      <c r="C151" t="s">
-        <v>267</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="B152" t="s">
+        <v>267</v>
+      </c>
+      <c r="C152" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>300</v>
       </c>
-      <c r="C152" t="s">
-        <v>267</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="B153" t="s">
+        <v>267</v>
+      </c>
+      <c r="C153" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>301</v>
       </c>
-      <c r="C153" t="s">
-        <v>267</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="B154" t="s">
+        <v>267</v>
+      </c>
+      <c r="C154" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>302</v>
       </c>
-      <c r="C154" t="s">
-        <v>267</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="B155" t="s">
+        <v>267</v>
+      </c>
+      <c r="C155" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>303</v>
       </c>
-      <c r="C155" t="s">
-        <v>267</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="B156" t="s">
+        <v>267</v>
+      </c>
+      <c r="C156" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>304</v>
       </c>
-      <c r="C156" t="s">
-        <v>267</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="B157" t="s">
+        <v>267</v>
+      </c>
+      <c r="C157" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>305</v>
       </c>
-      <c r="C157" t="s">
-        <v>267</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="B158" t="s">
+        <v>267</v>
+      </c>
+      <c r="C158" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>306</v>
       </c>
-      <c r="C158" t="s">
-        <v>267</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="B159" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>307</v>
       </c>
-      <c r="C159" t="s">
-        <v>267</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="B160" t="s">
+        <v>267</v>
+      </c>
+      <c r="C160" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>308</v>
       </c>
-      <c r="C160" t="s">
-        <v>267</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="B161" t="s">
+        <v>267</v>
+      </c>
+      <c r="C161" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>309</v>
       </c>
-      <c r="C161" t="s">
-        <v>267</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="B162" t="s">
+        <v>267</v>
+      </c>
+      <c r="C162" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>310</v>
       </c>
-      <c r="C162" t="s">
-        <v>267</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="B163" t="s">
+        <v>267</v>
+      </c>
+      <c r="C163" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>311</v>
       </c>
-      <c r="C163" t="s">
-        <v>267</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="B164" t="s">
+        <v>267</v>
+      </c>
+      <c r="C164" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>312</v>
       </c>
-      <c r="C164" t="s">
-        <v>267</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="B165" t="s">
+        <v>267</v>
+      </c>
+      <c r="C165" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>313</v>
       </c>
-      <c r="C165" t="s">
-        <v>267</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="B166" t="s">
+        <v>267</v>
+      </c>
+      <c r="C166" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>314</v>
       </c>
-      <c r="C166" t="s">
-        <v>267</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="B167" t="s">
+        <v>267</v>
+      </c>
+      <c r="C167" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>315</v>
       </c>
-      <c r="C167" t="s">
-        <v>267</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="B168" t="s">
+        <v>267</v>
+      </c>
+      <c r="C168" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>316</v>
       </c>
-      <c r="C168" t="s">
-        <v>267</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="B169" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>317</v>
       </c>
-      <c r="C169" t="s">
-        <v>267</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="B170" t="s">
+        <v>267</v>
+      </c>
+      <c r="C170" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>318</v>
       </c>
-      <c r="C170" t="s">
-        <v>267</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="B171" t="s">
+        <v>267</v>
+      </c>
+      <c r="C171" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>319</v>
       </c>
-      <c r="C171" t="s">
-        <v>267</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="B172" t="s">
+        <v>267</v>
+      </c>
+      <c r="C172" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>320</v>
       </c>
-      <c r="C172" t="s">
-        <v>267</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="B173" t="s">
+        <v>267</v>
+      </c>
+      <c r="C173" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>321</v>
       </c>
-      <c r="C173" t="s">
-        <v>267</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="B174" t="s">
+        <v>267</v>
+      </c>
+      <c r="C174" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>322</v>
       </c>
-      <c r="C174" t="s">
-        <v>267</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="B175" t="s">
+        <v>267</v>
+      </c>
+      <c r="C175" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>323</v>
       </c>
-      <c r="C175" t="s">
-        <v>267</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="B176" t="s">
+        <v>267</v>
+      </c>
+      <c r="C176" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>324</v>
-      </c>
-      <c r="C176" t="s">
-        <v>267</v>
-      </c>
-      <c r="D176" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>242</v>
       </c>
+      <c r="B177" t="s">
+        <v>267</v>
+      </c>
       <c r="C177" t="s">
-        <v>267</v>
-      </c>
-      <c r="D177" t="s">
         <v>242</v>
       </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>324</v>
+      </c>
+      <c r="B178" t="s">
+        <v>267</v>
+      </c>
+      <c r="C178" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>325</v>
       </c>
-      <c r="C178" t="s">
-        <v>267</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="B179" t="s">
+        <v>267</v>
+      </c>
+      <c r="C179" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>326</v>
-      </c>
-      <c r="C179" t="s">
-        <v>267</v>
-      </c>
-      <c r="D179" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>243</v>
       </c>
+      <c r="B180" t="s">
+        <v>267</v>
+      </c>
       <c r="C180" t="s">
-        <v>267</v>
-      </c>
-      <c r="D180" t="s">
         <v>243</v>
       </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>326</v>
+      </c>
+      <c r="B181" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" t="s">
+        <v>326</v>
+      </c>
+      <c r="E181" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>327</v>
       </c>
-      <c r="C181" t="s">
-        <v>267</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B182" t="s">
+        <v>267</v>
+      </c>
+      <c r="C182" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>328</v>
-      </c>
-      <c r="C182" t="s">
-        <v>267</v>
-      </c>
-      <c r="D182" t="s">
-        <v>328</v>
+      <c r="E182" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>244</v>
       </c>
+      <c r="B183" t="s">
+        <v>267</v>
+      </c>
       <c r="C183" t="s">
-        <v>267</v>
-      </c>
-      <c r="D183" t="s">
         <v>244</v>
       </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>328</v>
+      </c>
+      <c r="B184" t="s">
+        <v>267</v>
+      </c>
+      <c r="C184" t="s">
+        <v>328</v>
+      </c>
+      <c r="E184" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>329</v>
       </c>
-      <c r="C184" t="s">
-        <v>267</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="B185" t="s">
+        <v>267</v>
+      </c>
+      <c r="C185" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>330</v>
-      </c>
-      <c r="C185" t="s">
-        <v>267</v>
-      </c>
-      <c r="D185" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E185" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>245</v>
       </c>
+      <c r="B186" t="s">
+        <v>267</v>
+      </c>
       <c r="C186" t="s">
-        <v>267</v>
-      </c>
-      <c r="D186" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" t="s">
+        <v>330</v>
+      </c>
+      <c r="E187" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>331</v>
       </c>
-      <c r="C187" t="s">
-        <v>267</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="B188" t="s">
+        <v>267</v>
+      </c>
+      <c r="C188" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>332</v>
-      </c>
-      <c r="C188" t="s">
-        <v>267</v>
-      </c>
-      <c r="D188" t="s">
-        <v>332</v>
+      <c r="E188" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>246</v>
       </c>
+      <c r="B189" t="s">
+        <v>267</v>
+      </c>
       <c r="C189" t="s">
-        <v>267</v>
-      </c>
-      <c r="D189" t="s">
         <v>246</v>
       </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>332</v>
+      </c>
+      <c r="B190" t="s">
+        <v>267</v>
+      </c>
+      <c r="C190" t="s">
+        <v>332</v>
+      </c>
+      <c r="E190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>333</v>
       </c>
-      <c r="C190" t="s">
-        <v>267</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="B191" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>334</v>
-      </c>
-      <c r="C191" t="s">
-        <v>267</v>
-      </c>
-      <c r="D191" t="s">
-        <v>334</v>
+      <c r="E191" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>247</v>
       </c>
+      <c r="B192" t="s">
+        <v>267</v>
+      </c>
       <c r="C192" t="s">
-        <v>267</v>
-      </c>
-      <c r="D192" t="s">
         <v>247</v>
       </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>334</v>
+      </c>
+      <c r="B193" t="s">
+        <v>267</v>
+      </c>
+      <c r="C193" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>335</v>
       </c>
-      <c r="C193" t="s">
-        <v>267</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="B194" t="s">
+        <v>267</v>
+      </c>
+      <c r="C194" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>336</v>
       </c>
-      <c r="C194" t="s">
-        <v>267</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="B195" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>337</v>
-      </c>
-      <c r="C195" t="s">
-        <v>267</v>
-      </c>
-      <c r="D195" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>248</v>
       </c>
+      <c r="B196" t="s">
+        <v>267</v>
+      </c>
       <c r="C196" t="s">
-        <v>267</v>
-      </c>
-      <c r="D196" t="s">
         <v>248</v>
       </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>263</v>
       </c>
       <c r="B197" t="s">
+        <v>267</v>
+      </c>
+      <c r="C197" t="s">
+        <v>263</v>
+      </c>
+      <c r="E197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>337</v>
+      </c>
+      <c r="B198" t="s">
         <v>268</v>
       </c>
-      <c r="C197" t="s">
-        <v>267</v>
-      </c>
-      <c r="D197" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="C198" t="s">
+        <v>337</v>
+      </c>
+      <c r="E198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>338</v>
       </c>
-      <c r="C198" t="s">
-        <v>269</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="B199" t="s">
+        <v>268</v>
+      </c>
+      <c r="C199" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="E199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>339</v>
       </c>
-      <c r="C199" t="s">
-        <v>269</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="B200" t="s">
+        <v>268</v>
+      </c>
+      <c r="C200" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>340</v>
-      </c>
-      <c r="C200" t="s">
-        <v>269</v>
-      </c>
-      <c r="D200" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E200" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>249</v>
       </c>
+      <c r="B201" t="s">
+        <v>268</v>
+      </c>
       <c r="C201" t="s">
-        <v>269</v>
-      </c>
-      <c r="D201" t="s">
         <v>249</v>
+      </c>
+      <c r="E201" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>250</v>
       </c>
+      <c r="B202" t="s">
+        <v>268</v>
+      </c>
       <c r="C202" t="s">
-        <v>269</v>
-      </c>
-      <c r="D202" t="s">
         <v>250</v>
       </c>
-      <c r="E202">
-        <v>1</v>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="B203" t="s">
+        <v>268</v>
       </c>
       <c r="C203" t="s">
-        <v>269</v>
-      </c>
-      <c r="D203" t="s">
-        <v>341</v>
-      </c>
-      <c r="E203">
-        <v>1</v>
+        <v>340</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="B204" t="s">
+        <v>268</v>
       </c>
       <c r="C204" t="s">
-        <v>269</v>
-      </c>
-      <c r="D204" t="s">
-        <v>342</v>
-      </c>
-      <c r="E204">
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>251</v>
       </c>
+      <c r="B205" t="s">
+        <v>267</v>
+      </c>
       <c r="C205" t="s">
-        <v>267</v>
-      </c>
-      <c r="D205" t="s">
         <v>251</v>
       </c>
-      <c r="E205">
-        <v>1</v>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>252</v>
       </c>
+      <c r="B206" t="s">
+        <v>267</v>
+      </c>
       <c r="C206" t="s">
-        <v>267</v>
-      </c>
-      <c r="D206" t="s">
         <v>252</v>
       </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="B207" t="s">
+        <v>349</v>
       </c>
       <c r="C207" t="s">
-        <v>350</v>
-      </c>
-      <c r="D207" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="E207" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>253</v>
       </c>
+      <c r="B208" t="s">
+        <v>349</v>
+      </c>
       <c r="C208" t="s">
-        <v>350</v>
-      </c>
-      <c r="D208" t="s">
         <v>253</v>
       </c>
-      <c r="E208">
-        <v>1</v>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>254</v>
       </c>
+      <c r="B209" t="s">
+        <v>349</v>
+      </c>
       <c r="C209" t="s">
-        <v>350</v>
-      </c>
-      <c r="D209" t="s">
         <v>254</v>
       </c>
-      <c r="E209">
-        <v>1</v>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>255</v>
       </c>
+      <c r="B210" t="s">
+        <v>349</v>
+      </c>
       <c r="C210" t="s">
-        <v>350</v>
-      </c>
-      <c r="D210" t="s">
         <v>255</v>
       </c>
-      <c r="E210">
-        <v>1</v>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>256</v>
       </c>
+      <c r="B211" t="s">
+        <v>349</v>
+      </c>
       <c r="C211" t="s">
-        <v>350</v>
-      </c>
-      <c r="D211" t="s">
         <v>256</v>
       </c>
-      <c r="E211">
-        <v>1</v>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>257</v>
       </c>
+      <c r="B212" t="s">
+        <v>349</v>
+      </c>
       <c r="C212" t="s">
-        <v>350</v>
-      </c>
-      <c r="D212" t="s">
         <v>257</v>
       </c>
-      <c r="E212">
-        <v>1</v>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>258</v>
       </c>
+      <c r="B213" t="s">
+        <v>349</v>
+      </c>
       <c r="C213" t="s">
-        <v>350</v>
-      </c>
-      <c r="D213" t="s">
         <v>258</v>
       </c>
-      <c r="E213">
-        <v>1</v>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>259</v>
       </c>
+      <c r="B214" t="s">
+        <v>349</v>
+      </c>
       <c r="C214" t="s">
-        <v>350</v>
-      </c>
-      <c r="D214" t="s">
         <v>259</v>
       </c>
-      <c r="E214">
-        <v>1</v>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>260</v>
       </c>
+      <c r="B215" t="s">
+        <v>349</v>
+      </c>
       <c r="C215" t="s">
-        <v>350</v>
-      </c>
-      <c r="D215" t="s">
         <v>260</v>
       </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>261</v>
       </c>
+      <c r="B216" t="s">
+        <v>349</v>
+      </c>
       <c r="C216" t="s">
-        <v>350</v>
-      </c>
-      <c r="D216" t="s">
         <v>261</v>
+      </c>
+      <c r="E216" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>262</v>
       </c>
+      <c r="B217" t="s">
+        <v>349</v>
+      </c>
       <c r="C217" t="s">
-        <v>350</v>
-      </c>
-      <c r="D217" t="s">
         <v>262</v>
       </c>
-      <c r="E217">
-        <v>1</v>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>263</v>
       </c>
+      <c r="B218" t="s">
+        <v>349</v>
+      </c>
       <c r="C218" t="s">
-        <v>350</v>
-      </c>
-      <c r="D218" t="s">
         <v>263</v>
       </c>
-      <c r="E218">
-        <v>1</v>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>264</v>
       </c>
+      <c r="B219" t="s">
+        <v>267</v>
+      </c>
       <c r="C219" t="s">
-        <v>267</v>
-      </c>
-      <c r="D219" t="s">
         <v>264</v>
       </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>351</v>
+      </c>
+      <c r="B220" t="s">
+        <v>269</v>
+      </c>
+      <c r="C220" t="s">
+        <v>351</v>
+      </c>
+      <c r="E220" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>352</v>
       </c>
-      <c r="B220" t="s">
-        <v>356</v>
-      </c>
-      <c r="C220" t="s">
-        <v>270</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="B221" t="s">
+        <v>269</v>
+      </c>
+      <c r="C221" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+      <c r="E221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>353</v>
       </c>
-      <c r="B221" t="s">
-        <v>355</v>
-      </c>
-      <c r="C221" t="s">
-        <v>270</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="B222" t="s">
+        <v>269</v>
+      </c>
+      <c r="C222" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>354</v>
-      </c>
-      <c r="C222" t="s">
-        <v>270</v>
-      </c>
-      <c r="D222" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="B223" t="s">
+        <v>269</v>
       </c>
       <c r="C223" t="s">
-        <v>270</v>
-      </c>
-      <c r="D223" t="s">
-        <v>344</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
+        <v>343</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="B224" t="s">
+        <v>269</v>
       </c>
       <c r="C224" t="s">
-        <v>270</v>
-      </c>
-      <c r="D224" t="s">
-        <v>345</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="B225" t="s">
+        <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>270</v>
-      </c>
-      <c r="D225" t="s">
-        <v>346</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
+        <v>345</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="B226" t="s">
+        <v>269</v>
       </c>
       <c r="C226" t="s">
-        <v>270</v>
-      </c>
-      <c r="D226" t="s">
-        <v>347</v>
-      </c>
-      <c r="E226">
-        <v>1</v>
+        <v>346</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="B227" t="s">
+        <v>269</v>
       </c>
       <c r="C227" t="s">
-        <v>270</v>
-      </c>
-      <c r="D227" t="s">
-        <v>348</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E229" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E230" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E231" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E232" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E233" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E234" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E235" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E224" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D235" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBA270-13AA-4CE6-8C6C-2274FE544865}">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1796875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49745861-A84E-4248-9F1B-80C7799657BC}">
   <dimension ref="A1:B7"/>
   <sheetViews>
